--- a/db/dowload_info_personal.xlsx
+++ b/db/dowload_info_personal.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb86df6e8f679dfa/Рабочий стол/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_2BB113B4DEA4B0243D00C9F05033A0B77F83E6FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA494720-7025-4CE6-8603-917CF3FA90D2}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Персональные данные" sheetId="2" r:id="rId1"/>
+    <sheet name="Персональные данные" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>id-пользователя</t>
   </si>
@@ -58,6 +64,12 @@
     <t>Код подразделения</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>79535012152</t>
+  </si>
+  <si>
     <t>Дорофеев</t>
   </si>
   <si>
@@ -73,18 +85,6 @@
     <t>89215428101</t>
   </si>
   <si>
-    <t>Дорофеева</t>
-  </si>
-  <si>
-    <t>Валерия</t>
-  </si>
-  <si>
-    <t>Васильевна</t>
-  </si>
-  <si>
-    <t>89875026905</t>
-  </si>
-  <si>
     <t>Михаил</t>
   </si>
   <si>
@@ -94,7 +94,25 @@
     <t>Викторович</t>
   </si>
   <si>
-    <t>Заявка</t>
+    <t>Грузчик</t>
+  </si>
+  <si>
+    <t>Мужской</t>
+  </si>
+  <si>
+    <t>1984-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t>3502</t>
+  </si>
+  <si>
+    <t>676221</t>
+  </si>
+  <si>
+    <t>2002-07-24 00:00:00</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>Никита</t>
@@ -106,6 +124,15 @@
     <t>Александрович</t>
   </si>
   <si>
+    <t>2003-09-04 00:00:00</t>
+  </si>
+  <si>
+    <t>УФМС по Вологодской области</t>
+  </si>
+  <si>
+    <t>2023-09-24 00:00:00</t>
+  </si>
+  <si>
     <t>Сергей</t>
   </si>
   <si>
@@ -115,22 +142,25 @@
     <t>Иванович</t>
   </si>
   <si>
-    <t>Женский</t>
-  </si>
-  <si>
-    <t>Мужской</t>
-  </si>
-  <si>
-    <t>УФМС по Вологодской области</t>
-  </si>
-  <si>
-    <t>УФМС по Пензенской области</t>
+    <t>2001-05-13 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-06-09 00:00:00</t>
+  </si>
+  <si>
+    <t>Прозоров</t>
+  </si>
+  <si>
+    <t>Анатольевич</t>
+  </si>
+  <si>
+    <t>Иван</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +192,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -172,6 +204,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -461,262 +496,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.77734375" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
+    <col min="4" max="14" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1890633974</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1172020269</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
-        <v>1000000</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1172020272</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3600</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1172020271</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1">
-        <v>37610</v>
-      </c>
-      <c r="J2">
-        <v>3522</v>
-      </c>
-      <c r="K2">
-        <v>343432</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="1">
-        <v>44924</v>
-      </c>
-      <c r="N2">
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1172020270</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5016217238</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>100000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1">
-        <v>37565</v>
-      </c>
-      <c r="J3">
-        <v>5822</v>
-      </c>
-      <c r="K3">
-        <v>434137</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="1">
-        <v>44880</v>
-      </c>
-      <c r="N3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1172020272</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>300</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1">
-        <v>30856</v>
-      </c>
-      <c r="J4">
-        <v>3502</v>
-      </c>
-      <c r="K4">
-        <v>676221</v>
-      </c>
-      <c r="M4" s="1">
-        <v>37461</v>
-      </c>
-      <c r="N4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1172020271</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1">
-        <v>37868</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="1">
-        <v>45193</v>
-      </c>
-      <c r="N5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1172020270</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1">
-        <v>37024</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="1">
-        <v>44356</v>
+      <c r="M6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/db/dowload_info_personal.xlsx
+++ b/db/dowload_info_personal.xlsx
@@ -3,24 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb86df6e8f679dfa/Рабочий стол/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_2BB113B4DEA4B0243D00C9F05033A0B77F83E6FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA494720-7025-4CE6-8603-917CF3FA90D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B3FF590-8AE4-8B43-8A07-579FCD3D6BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Персональные данные" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>id-пользователя</t>
   </si>
@@ -64,75 +72,96 @@
     <t>Код подразделения</t>
   </si>
   <si>
+    <t>Дорофеев</t>
+  </si>
+  <si>
+    <t>Денис</t>
+  </si>
+  <si>
+    <t>Васильевич</t>
+  </si>
+  <si>
+    <t>Администратор</t>
+  </si>
+  <si>
+    <t>89215428101</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
+    <t>Дорофеева</t>
+  </si>
+  <si>
+    <t>Валерия</t>
+  </si>
+  <si>
+    <t>Васильевна</t>
+  </si>
+  <si>
+    <t>Грузчик</t>
+  </si>
+  <si>
+    <t>79875026905</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Закудалов</t>
+  </si>
+  <si>
+    <t>Викторович</t>
+  </si>
+  <si>
+    <t>Мужской</t>
+  </si>
+  <si>
+    <t>1984-06-23 00:00:00</t>
+  </si>
+  <si>
+    <t>3502</t>
+  </si>
+  <si>
+    <t>676221</t>
+  </si>
+  <si>
+    <t>2002-07-24 00:00:00</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Кудряшов</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>2003-09-04 00:00:00</t>
+  </si>
+  <si>
+    <t>УФМС по Вологодской области</t>
+  </si>
+  <si>
+    <t>2023-09-24 00:00:00</t>
+  </si>
+  <si>
+    <t>Прозоров</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Анатольевич</t>
+  </si>
+  <si>
     <t>79535012152</t>
   </si>
   <si>
-    <t>Дорофеев</t>
-  </si>
-  <si>
-    <t>Денис</t>
-  </si>
-  <si>
-    <t>Васильевич</t>
-  </si>
-  <si>
-    <t>Администратор</t>
-  </si>
-  <si>
-    <t>89215428101</t>
-  </si>
-  <si>
-    <t>Михаил</t>
-  </si>
-  <si>
-    <t>Закудалов</t>
-  </si>
-  <si>
-    <t>Викторович</t>
-  </si>
-  <si>
-    <t>Грузчик</t>
-  </si>
-  <si>
-    <t>Мужской</t>
-  </si>
-  <si>
-    <t>1984-06-23 00:00:00</t>
-  </si>
-  <si>
-    <t>3502</t>
-  </si>
-  <si>
-    <t>676221</t>
-  </si>
-  <si>
-    <t>2002-07-24 00:00:00</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Никита</t>
-  </si>
-  <si>
-    <t>Кудряшов</t>
-  </si>
-  <si>
-    <t>Александрович</t>
-  </si>
-  <si>
-    <t>2003-09-04 00:00:00</t>
-  </si>
-  <si>
-    <t>УФМС по Вологодской области</t>
-  </si>
-  <si>
-    <t>2023-09-24 00:00:00</t>
-  </si>
-  <si>
     <t>Сергей</t>
   </si>
   <si>
@@ -148,13 +177,7 @@
     <t>2021-06-09 00:00:00</t>
   </si>
   <si>
-    <t>Прозоров</t>
-  </si>
-  <si>
-    <t>Анатольевич</t>
-  </si>
-  <si>
-    <t>Иван</t>
+    <t>Заявка</t>
   </si>
 </sst>
 </file>
@@ -190,11 +213,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -497,260 +517,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
-    <col min="4" max="14" width="20.7109375" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1172020269</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>100005996</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5016217238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>99999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1172020272</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>99999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1172020271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>99999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1890633974</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>99999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1172020270</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1172020269</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>99999999</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1172020272</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1172020271</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1172020270</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>14</v>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
